--- a/evaluation/VM list generation.xlsx
+++ b/evaluation/VM list generation.xlsx
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +626,23 @@
       </c>
       <c r="F20">
         <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>125</v>
+      </c>
+      <c r="C21">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>84</v>
+      </c>
+      <c r="F21">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
